--- a/medicine/Mort/Nécropole_nationale_de_Pontavert/Nécropole_nationale_de_Pontavert.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Pontavert/Nécropole_nationale_de_Pontavert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Pontavert</t>
+          <t>Nécropole_nationale_de_Pontavert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Pontavert est un cimetière militaire de la Première Guerre mondiale situé sur le territoire de la commune de Pontavert, au bord de la D925, à la sortie de Pontavert en direction de Beaurieux, dans le département de l'Aisne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Pontavert</t>
+          <t>Nécropole_nationale_de_Pontavert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Le cimetière militaire
-Cette nécropole, créée en 1915 et réaménagée de 1919 à 1925 (travaux de regroupement), rassemble, sur 2,4 ha, 6 815 corps dont 5 451 en tombes individuelles et 1 364 en ossuaires[1]. Parmi les tombes, il y a celles de 67 Britanniques tombés en octobre 1914 et de mai à octobre 1918, et celles de 54 Russes[2].
-Le monument à la mémoire du 31e R. I.
-Ce monument situé dans la nécropole a été érigé à la mémoire des soldats du 31e Régiment d'infanterie tombés en montant à l'assaut du bois des Buttes et de la Ville-au-Bois, du 16 au 18 avril 1917 au cours de l'offensive du Chemin des Dames du général Nivelle. Il comporte trois plaques du haut vers le bas : 
+          <t>Le cimetière militaire</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette nécropole, créée en 1915 et réaménagée de 1919 à 1925 (travaux de regroupement), rassemble, sur 2,4 ha, 6 815 corps dont 5 451 en tombes individuelles et 1 364 en ossuaires. Parmi les tombes, il y a celles de 67 Britanniques tombés en octobre 1914 et de mai à octobre 1918, et celles de 54 Russes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nécropole_nationale_de_Pontavert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropole_nationale_de_Pontavert</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le monument à la mémoire du 31e R. I.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce monument situé dans la nécropole a été érigé à la mémoire des soldats du 31e Régiment d'infanterie tombés en montant à l'assaut du bois des Buttes et de la Ville-au-Bois, du 16 au 18 avril 1917 au cours de l'offensive du Chemin des Dames du général Nivelle. Il comporte trois plaques du haut vers le bas : 
 Marbre blanc : A la mémoire des héros du 31e tombés à l'assaut du Bois des Buttes et de la Ville aux Bois 16-18 avril 1917.
 l'inscription sur plaque de cuivre : « Le 31ème R.I. a enlevé très brillamment les 16, 17 et 18 avril 1917 tous les objectifs qui lui avaient été assignés, et, par un combat opiniâtre, est parvenu à réaliser un gain de terrain de 3 kilomètres en profondeur faisant à lui seul 1 500 prisonniers dont 34 officiers et 170 sous-officiers, et capturant 6 canons, plusieurs minenwerfer, 50 mitrailleuses et un important matériel de toute nature. Régiment d'élite de la plus haute valeur offensive. Ordre général n°172 du 1er mai 1917 du général commandant la Ve Armée. »
 Une autre plaque, en forme de plaque matricule, à la mémoire des mitrailleurs : Les mitrailleurs de la CM 3/31 à leurs camarades tombés à l'ennemi.</t>
